--- a/doc/doc_obog/メンバーリスト_現役&OBOG.xlsx
+++ b/doc/doc_obog/メンバーリスト_現役&OBOG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shinozakireishi/hp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toshi\OneDrive\ドキュメント\研究室\2023HP更新\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B383A3-152D-4545-9754-B715AEFDBB08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416CF58E-9C0F-4517-A700-CF60C6BEFC13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="1" xr2:uid="{9ACCDE18-A1D7-0E48-A4D0-C26D40983CE8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11760" xr2:uid="{9ACCDE18-A1D7-0E48-A4D0-C26D40983CE8}"/>
   </bookViews>
   <sheets>
     <sheet name="現役メンバー" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="105">
   <si>
     <t>現役メンバーリスト</t>
     <rPh sb="0" eb="2">
@@ -154,10 +154,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>RC4 の脆弱性に関する調査</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>立体音響の活用事例調査</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -278,63 +274,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>事例研究、卒業研究がんばります</t>
-    <rPh sb="3" eb="4">
-      <t>キュウ</t>
-    </rPh>
-    <rPh sb="5" eb="9">
-      <t>ソツギョウケンキュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>人間に容易でロボットに困難なCAPTCHA認証について学びたいです</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>認証やマルウェアについて学びたいです!</t>
-  </si>
-  <si>
-    <t>楽しく研究活動したいと思います！</t>
-  </si>
-  <si>
-    <t>事例研、卒研頑張ります</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>セキュリティ分野は勿論、様々な知見を広げていきたいです！</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>サイバーセキュリティについて学んでみたいです！</t>
-  </si>
-  <si>
-    <t>楽しい研究活動がしたいです！</t>
-  </si>
-  <si>
-    <t>勉強、遊び、研究を全力で楽しみたい！</t>
-    <rPh sb="0" eb="2">
-      <t>ベンキョウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>アソ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ケンキュウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ゼンリョク</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>タノ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ブロックチェーンを追ってきたいです。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>広報</t>
     <rPh sb="0" eb="2">
       <t>コウホウ</t>
@@ -449,6 +388,203 @@
     <rPh sb="0" eb="2">
       <t xml:space="preserve">ヒトコト </t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>広報/合宿</t>
+    <rPh sb="0" eb="2">
+      <t>コウホウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガッシュク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>共分散構造分析の設計手法に関する研究</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>五十嵐星哉</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤間弦　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今村優香　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>岸佑奈　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小西川龍希</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小林祥瑛</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小林将大</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新實一心</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>深町公貴</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山下真和都</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>行友裕哉　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>若山樹　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>渡邊悠人</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>わからないことも多いですがこれからよろしくお願いします！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Googleなどの検索エンジンなどのセキュリティについての研究をしてみたいです</t>
+    <rPh sb="9" eb="11">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ケンキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セキュリティのことはもちろん、色々な知識をつけて視野を広げたいです！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合宿</t>
+    <rPh sb="0" eb="2">
+      <t>ガッシュク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学内イベント</t>
+    <rPh sb="0" eb="2">
+      <t>ガクナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャッシュレス決済に関する調査</t>
+    <rPh sb="7" eb="9">
+      <t>ケッサイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>チョウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Browser Fingerprinting の対策に関する調査</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>利便性とセキュリティを両立させた音声型CAPTCHAの調査</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サッカーにおけるトラッキングデータに関する研究</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OAuth2.0の仕組みに関する調査</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブロックチェーンを用いた電子投票システムに関する調査</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>APEX LEGENDSサーバの仕組みに関する調査</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ペットのマイクロチップに関する調査</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ショルダーハックに関する調査</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Society5.0時代のセキュリティ問題に関する調査</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セキュリティ関係の中でも特にサーバーについて学んでいきたいです</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>研究内容</t>
+    <rPh sb="0" eb="4">
+      <t>ケンキュウナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>人と話すことが大好きなので仲良くしてください。やりたいことは決まっていないので探していきたいです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>関研究室のHPを新しく作りたいです。Webに関することをやりたいです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>金融関係のセキュリティについて学習したいと思っています</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>事例研究を通して、情報セキュリティへの理解や探究意欲を深めたいと思っています</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SNSのセキュリティ関連についての研究がしたいです</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>何事にも真摯に取り組んでいきたいです！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>研究とは何か、問題意識を持ちながら学びたいです！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>運動と古着が好きです。サッカーをやっています。頑張ります。</t>
+    <rPh sb="3" eb="5">
+      <t>フルギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イラストを描くことが好きなので、それに関する研究ができたらと思っています</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -456,7 +592,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -695,7 +831,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -735,7 +871,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -744,22 +895,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -783,46 +931,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1146,388 +1276,469 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA28C2DE-42A5-974F-8E2F-173DA2A97B20}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="214" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:G19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="56" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="20" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="1" max="1" width="17.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="22" thickTop="1" thickBot="1">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:7" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="24"/>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="28"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="30"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="15"/>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="20"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
         <v>37</v>
       </c>
-      <c r="B4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="28"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="35"/>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="C4" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="32"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A5" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="34"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="15"/>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="C6" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A7" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" s="5"/>
-      <c r="C7" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="15"/>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="C7" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="20"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A8" s="8" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A9" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A10" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A11" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="20"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A12" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="20"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A13" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="B13" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="20"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A14" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="20"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A15" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="20"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A16" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="20"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A17" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="20"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A18" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="23"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="15"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="14" t="s">
+      <c r="C21" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A22" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A23" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A24" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A25" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="15"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="15"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="15"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="15"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="15"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="15"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="15"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="15"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="15"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="6" t="s">
+      <c r="C25" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="20"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A26" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="20"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A27" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="20"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A28" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="21"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="1"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="15"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="1"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="15"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="1"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="15"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="8"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="15"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="8"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="15"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="8"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="15"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="8"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="15"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="8"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="15"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="8"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="15"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="8"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="15"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="8"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="15"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="8"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="15"/>
-    </row>
-    <row r="31" spans="1:7" ht="21" thickBot="1">
-      <c r="A31" s="10"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="18"/>
-    </row>
-    <row r="32" spans="1:7" ht="21" thickTop="1"/>
+      <c r="C28" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="20"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A29" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="20"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A30" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="20"/>
+    </row>
+    <row r="31" spans="1:7" ht="20.5" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A31" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="25"/>
+    </row>
+    <row r="32" spans="1:7" ht="20.5" thickTop="1" x14ac:dyDescent="0.6"/>
   </sheetData>
   <mergeCells count="31">
     <mergeCell ref="A1:G1"/>
@@ -1537,6 +1748,8 @@
     <mergeCell ref="C9:G9"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C3:G3"/>
     <mergeCell ref="C29:G29"/>
     <mergeCell ref="C30:G30"/>
     <mergeCell ref="C31:G31"/>
@@ -1546,21 +1759,19 @@
     <mergeCell ref="C23:G23"/>
     <mergeCell ref="C24:G24"/>
     <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C3:G3"/>
     <mergeCell ref="C26:G26"/>
     <mergeCell ref="C27:G27"/>
     <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
     <mergeCell ref="C14:G14"/>
     <mergeCell ref="C15:G15"/>
     <mergeCell ref="C16:G16"/>
     <mergeCell ref="C17:G17"/>
     <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1571,223 +1782,223 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AB92498-13D5-E74B-B079-4B5E07BBF754}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="138" workbookViewId="0">
+    <sheetView zoomScale="46" workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="20" x14ac:dyDescent="0.6"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="21" thickTop="1">
-      <c r="A1" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="C1" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="40"/>
-    </row>
-    <row r="2" spans="1:7">
+    <row r="1" spans="1:7" ht="20.5" thickTop="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="39"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="15"/>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="20"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="15"/>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="C3" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="20"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="15"/>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="C4" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="15"/>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="C5" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="15"/>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="C6" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="15"/>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="C7" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="20"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="15"/>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="C8" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="15"/>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="C9" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="15"/>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="C10" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="15"/>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="C11" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="20"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="15"/>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="C12" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="20"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="B13" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="15"/>
-    </row>
-    <row r="14" spans="1:7" ht="21" thickBot="1">
-      <c r="A14" s="42" t="s">
+      <c r="C13" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="20"/>
+    </row>
+    <row r="14" spans="1:7" ht="20.5" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A14" s="18" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="18"/>
-    </row>
-    <row r="15" spans="1:7" ht="21" thickTop="1"/>
+      <c r="C14" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="25"/>
+    </row>
+    <row r="15" spans="1:7" ht="20.5" thickTop="1" x14ac:dyDescent="0.6"/>
   </sheetData>
   <mergeCells count="14">
     <mergeCell ref="C13:G13"/>

--- a/doc/doc_obog/メンバーリスト_現役&OBOG.xlsx
+++ b/doc/doc_obog/メンバーリスト_現役&OBOG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toshi\OneDrive\ドキュメント\研究室\2023HP更新\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shinozakireishi/Documents/GitHub/seki-lab-hp/doc/doc_obog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416CF58E-9C0F-4517-A700-CF60C6BEFC13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC4E8A4C-B674-3940-AF1C-E0CB5A84714A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11760" xr2:uid="{9ACCDE18-A1D7-0E48-A4D0-C26D40983CE8}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="11760" xr2:uid="{9ACCDE18-A1D7-0E48-A4D0-C26D40983CE8}"/>
   </bookViews>
   <sheets>
     <sheet name="現役メンバー" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="106">
   <si>
     <t>現役メンバーリスト</t>
     <rPh sb="0" eb="2">
@@ -243,13 +243,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>卒研テーマ</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">ソツケンテーマ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>研究内容</t>
     <rPh sb="0" eb="4">
       <t xml:space="preserve">ケンキュウナイヨウ </t>
@@ -257,10 +250,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>腕時計型デバイスとスマートフォンの距離による紛失防止手法に関する研究</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>事例研生</t>
     <rPh sb="0" eb="2">
       <t xml:space="preserve">ジレイ </t>
@@ -542,13 +531,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>研究内容</t>
-    <rPh sb="0" eb="4">
-      <t>ケンキュウナイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>人と話すことが大好きなので仲良くしてください。やりたいことは決まっていないので探していきたいです。</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -585,6 +567,28 @@
   </si>
   <si>
     <t>イラストを描くことが好きなので、それに関する研究ができたらと思っています</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>事例研究</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スマートフォンを用いて物理現象を理解させる3Dアプリケーションに関する研究</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>卒研テーマ</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ソツケン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修士研究テーマ</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">シュウシケンキュウ </t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -592,7 +596,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -831,7 +835,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -887,27 +891,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -925,6 +908,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
@@ -943,6 +932,21 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -950,9 +954,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1276,480 +1277,481 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA28C2DE-42A5-974F-8E2F-173DA2A97B20}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="56" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="20" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="17.84375" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:7" ht="22" thickTop="1" thickBot="1">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="21"/>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="23"/>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="20"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="C3" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="25"/>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B4" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="32"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="C4" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B5" s="15"/>
-      <c r="C5" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="34"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="C5" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="29"/>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="C6" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="25"/>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B7" s="5"/>
-      <c r="C7" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="20"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="C7" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="25"/>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="25"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="25"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B10" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C10" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="25"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="25"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A9" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A10" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="9" t="s">
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="25"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A11" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="19" t="s">
+      <c r="C13" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="20"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A12" s="8" t="s">
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="25"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="8" t="s">
         <v>53</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="20"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A13" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="20"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A14" s="8" t="s">
-        <v>55</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="20"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="C14" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="25"/>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="25"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="25"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="20"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A16" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16" s="9" t="s">
+      <c r="B17" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="25"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="36"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="20"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A17" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="20"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A18" s="6" t="s">
+      <c r="B20" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="23"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A19" s="1" t="s">
+      <c r="C21" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="8" t="s">
         <v>67</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A20" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C20" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A21" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A22" s="8" t="s">
-        <v>69</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="C22" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C23" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A24" s="8" t="s">
+      <c r="B25" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="25"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C24" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A25" s="8" t="s">
+      <c r="B26" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="25"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="20"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A26" s="8" t="s">
+      <c r="B27" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="25"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B26" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="20"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A27" s="8" t="s">
+      <c r="B28" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="25"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="20"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A28" s="8" t="s">
+      <c r="B29" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="25"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B30" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="25"/>
+    </row>
+    <row r="31" spans="1:7" ht="21" thickBot="1">
+      <c r="A31" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="20"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A29" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="20"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A30" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="20"/>
-    </row>
-    <row r="31" spans="1:7" ht="20.5" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A31" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="25"/>
-    </row>
-    <row r="32" spans="1:7" ht="20.5" thickTop="1" x14ac:dyDescent="0.6"/>
+      <c r="C31" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="33"/>
+    </row>
+    <row r="32" spans="1:7" ht="21" thickTop="1"/>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
     <mergeCell ref="C29:G29"/>
     <mergeCell ref="C30:G30"/>
     <mergeCell ref="C31:G31"/>
@@ -1762,16 +1764,15 @@
     <mergeCell ref="C26:G26"/>
     <mergeCell ref="C27:G27"/>
     <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C3:G3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1786,219 +1787,219 @@
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="20" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="20"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="20.5" thickTop="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:7" ht="21" thickTop="1">
       <c r="A1" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C1" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D1" s="38"/>
       <c r="E1" s="38"/>
       <c r="F1" s="38"/>
       <c r="G1" s="39"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="20"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="25"/>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="20"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="25"/>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="25"/>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="25"/>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="25"/>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="20"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="25"/>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="25"/>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="25"/>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="25"/>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="20"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="25"/>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="20"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="25"/>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B13" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="20"/>
-    </row>
-    <row r="14" spans="1:7" ht="20.5" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="25"/>
+    </row>
+    <row r="14" spans="1:7" ht="21" thickBot="1">
       <c r="A14" s="18" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="25"/>
-    </row>
-    <row r="15" spans="1:7" ht="20.5" thickTop="1" x14ac:dyDescent="0.6"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="33"/>
+    </row>
+    <row r="15" spans="1:7" ht="21" thickTop="1"/>
   </sheetData>
   <mergeCells count="14">
     <mergeCell ref="C13:G13"/>
